--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\Dropbox (Energy InNovation)\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/fuels/pofdctae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E0567-D228-475F-AE92-CB99F12E58B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E4A18-9C8E-8140-A21E-71BF9501AD66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1065" windowWidth="23535" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="23540" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,6 +507,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,17 +793,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.5703125" customWidth="1"/>
+    <col min="2" max="2" width="87.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="34">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,223 +814,223 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="33"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>53</v>
       </c>
@@ -1038,77 +1042,77 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -1131,21 +1135,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" customWidth="1"/>
+    <col min="2" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>71</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>121838241144116.98</v>
       </c>
       <c r="D5" s="24">
-        <v>1908500328228990.3</v>
+        <v>1908500328228990.2</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" ref="E5:E24" si="0">B5+C5-D5</f>
@@ -1219,7 +1223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1294,7 +1298,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1305,7 +1309,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1327,7 +1331,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>40</v>
       </c>
@@ -1349,7 +1353,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>41</v>
       </c>
@@ -1371,7 +1375,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1386,14 +1390,14 @@
       </c>
       <c r="E14" s="22">
         <f t="shared" si="0"/>
-        <v>1405677582804767.3</v>
+        <v>1405677582804767.2</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1419,7 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1441,7 @@
       </c>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -1448,7 +1452,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1459,7 +1463,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -1481,7 +1485,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1503,7 +1507,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1529,7 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>50</v>
       </c>
@@ -1547,12 +1551,12 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="24">
-        <v>1730154785433083.3</v>
+        <v>1730154785433083.2</v>
       </c>
       <c r="C23" s="24">
         <v>0</v>
@@ -1562,14 +1566,14 @@
       </c>
       <c r="E23" s="22">
         <f t="shared" si="0"/>
-        <v>1730154785433083.3</v>
+        <v>1730154785433083.2</v>
       </c>
       <c r="F23" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
@@ -1610,13 +1614,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="22" width="16.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="22" width="16.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>

--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/fuels/pofdctae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/pofdctae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E4A18-9C8E-8140-A21E-71BF9501AD66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF654A-0795-8144-B9B2-ED0FB35DCD1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="23540" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="23540" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>

--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/pofdctae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\fuels\PoFDCtAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF654A-0795-8144-B9B2-ED0FB35DCD1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8719F1CD-7F12-4E84-8193-D1202AC966B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="23540" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,7 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,22 +790,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="87.5" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -814,223 +810,223 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="33"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>53</v>
       </c>
@@ -1042,77 +1038,77 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -1133,23 +1129,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" customWidth="1"/>
-    <col min="2" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.6640625" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>70</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>71</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1198,22 +1196,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="24">
-        <v>1.2994850819999496E+16</v>
+        <v>1.372785698375E+16</v>
       </c>
       <c r="C5" s="24">
-        <v>121838241144116.98</v>
+        <v>116791410000000</v>
       </c>
       <c r="D5" s="24">
-        <v>1908500328228990.2</v>
+        <v>1888127795000000</v>
       </c>
       <c r="E5" s="22">
-        <f t="shared" ref="E5:E24" si="0">B5+C5-D5</f>
-        <v>1.1208188732914622E+16</v>
+        <v>1.195652059875E+16</v>
       </c>
       <c r="F5" t="s">
         <v>77</v>
@@ -1223,22 +1220,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="24">
-        <v>3.3449389999999996E+16</v>
+        <v>3.5698853E+16</v>
       </c>
       <c r="C6" s="24">
-        <v>2724850000000000</v>
+        <v>2791070000000000</v>
       </c>
       <c r="D6" s="24">
-        <v>5184905000000000</v>
+        <v>4483330999999999.5</v>
       </c>
       <c r="E6" s="22">
-        <f t="shared" si="0"/>
-        <v>3.0989335E+16</v>
+        <v>3.4006591999999996E+16</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
@@ -1248,12 +1244,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="24">
-        <v>534894468127151.31</v>
+        <v>540000000000000</v>
       </c>
       <c r="C7" s="24">
         <v>7200000000000000</v>
@@ -1262,8 +1258,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="22">
-        <f t="shared" si="0"/>
-        <v>7734894468127151</v>
+        <v>7740000000000000</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -1273,7 +1268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1287,7 +1282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1298,7 +1293,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1309,12 +1304,12 @@
       <c r="F10" s="23"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="24">
-        <v>127054236057268.86</v>
+        <v>123408653368000</v>
       </c>
       <c r="C11" s="24">
         <v>3835846580378.2954</v>
@@ -1323,125 +1318,119 @@
         <v>86443847182000</v>
       </c>
       <c r="E11" s="22">
-        <f t="shared" si="0"/>
-        <v>44446235455647.156</v>
+        <v>40800652766378.289</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="24">
-        <v>2.345837516236748E+16</v>
+        <v>1.8365288407359E+16</v>
       </c>
       <c r="C12" s="24">
-        <v>65450425688886.055</v>
+        <v>59545742184000</v>
       </c>
       <c r="D12" s="24">
-        <v>1712687718894354.5</v>
+        <v>1381937220783000</v>
       </c>
       <c r="E12" s="22">
-        <f t="shared" si="0"/>
-        <v>2.1811137869162012E+16</v>
+        <v>1.704289692876E+16</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="24">
-        <v>1.3635229972917368E+16</v>
+        <v>1.0682345175E+16</v>
       </c>
       <c r="C13" s="24">
-        <v>351737454255556.31</v>
+        <v>320229375000000</v>
       </c>
       <c r="D13" s="24">
-        <v>3637018944597630</v>
+        <v>2936702875000000</v>
       </c>
       <c r="E13" s="22">
-        <f t="shared" si="0"/>
-        <v>1.0349948482575294E+16</v>
+        <v>8065871675000000</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="24">
-        <v>1561489169872463.5</v>
+        <v>1515620096655000</v>
       </c>
       <c r="C14" s="24">
-        <v>8008300000911.835</v>
+        <v>7285809312000</v>
       </c>
       <c r="D14" s="24">
-        <v>163819887068608</v>
+        <v>132183114996000</v>
       </c>
       <c r="E14" s="22">
-        <f t="shared" si="0"/>
-        <v>1405677582804767.2</v>
+        <v>1390722790971000</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="24">
-        <v>209619113794859.22</v>
+        <v>203604487000000</v>
       </c>
       <c r="C15" s="24">
-        <v>81719279513151.391</v>
+        <v>74398997000000</v>
       </c>
       <c r="D15" s="24">
-        <v>14787150681592.84</v>
+        <v>11939852000000</v>
       </c>
       <c r="E15" s="22">
-        <f t="shared" si="0"/>
-        <v>276551242626417.78</v>
+        <v>266063632000000</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="24">
-        <v>4515477159886859</v>
+        <v>3537592380000000</v>
       </c>
       <c r="C16" s="24">
-        <v>371817123993646.19</v>
+        <v>338510340000000</v>
       </c>
       <c r="D16" s="24">
-        <v>487532159271959.88</v>
+        <v>393656760000000</v>
       </c>
       <c r="E16" s="22">
-        <f t="shared" si="0"/>
-        <v>4399762124608545</v>
+        <v>3482445960000000</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
       </c>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +1441,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1463,12 +1452,12 @@
       <c r="F18" s="23"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="24">
-        <v>859050369312946.75</v>
+        <v>906213062527442.13</v>
       </c>
       <c r="C19" s="24">
         <v>0</v>
@@ -1477,86 +1466,82 @@
         <v>0</v>
       </c>
       <c r="E19" s="22">
-        <f t="shared" si="0"/>
-        <v>859050369312946.75</v>
+        <v>906213062527442.13</v>
       </c>
       <c r="F19" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="24">
-        <v>2.4934676413517276E+16</v>
+        <v>1.9460537227008E+16</v>
       </c>
       <c r="C20" s="24">
-        <v>1.4838296942851536E+16</v>
+        <v>1.658307810686E+16</v>
       </c>
       <c r="D20" s="24">
-        <v>2994708229987662</v>
+        <v>2408884127644000</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" si="0"/>
-        <v>3.6778265126381152E+16</v>
+        <v>3.3634731206224E+16</v>
       </c>
       <c r="F20" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="24">
-        <v>1250687800589910.5</v>
+        <v>979835237000000</v>
       </c>
       <c r="C21" s="24">
-        <v>476589424280788.31</v>
+        <v>433897305000000</v>
       </c>
       <c r="D21" s="24">
-        <v>873930050846522.25</v>
+        <v>705652880000000</v>
       </c>
       <c r="E21" s="22">
-        <f t="shared" si="0"/>
-        <v>853347174024176.5</v>
+        <v>708079662000000</v>
       </c>
       <c r="F21" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="24">
-        <v>4084904971604980.5</v>
+        <v>3148621106400000</v>
       </c>
       <c r="C22" s="24">
-        <v>243930593817797.94</v>
+        <v>222079680900000</v>
       </c>
       <c r="D22" s="24">
-        <v>1827886456100663</v>
+        <v>1475922862260000</v>
       </c>
       <c r="E22" s="22">
-        <f t="shared" si="0"/>
-        <v>2500949109322115.5</v>
+        <v>1894777925040000</v>
       </c>
       <c r="F22" t="s">
         <v>77</v>
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="24">
-        <v>1730154785433083.2</v>
+        <v>3564295858911020.5</v>
       </c>
       <c r="C23" s="24">
         <v>0</v>
@@ -1565,15 +1550,14 @@
         <v>0</v>
       </c>
       <c r="E23" s="22">
-        <f t="shared" si="0"/>
-        <v>1730154785433083.2</v>
+        <v>3564295858911020.5</v>
       </c>
       <c r="F23" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
@@ -1587,7 +1571,6 @@
         <v>0</v>
       </c>
       <c r="E24" s="22">
-        <f t="shared" si="0"/>
         <v>8746500000000000</v>
       </c>
       <c r="F24" t="s">
@@ -1607,20 +1590,20 @@
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="22" width="16.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="22" width="16.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -1688,7 +1671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1756,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1765,7 +1748,7 @@
       </c>
       <c r="C3" s="31">
         <f>'Data from BFPIaE'!D5/'Data from BFPIaE'!B5</f>
-        <v>0.14686588977933832</v>
+        <v>0.13753987947536334</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -1825,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1837,7 +1820,7 @@
       </c>
       <c r="D4" s="31">
         <f>'Data from BFPIaE'!D6/'Data from BFPIaE'!B6</f>
-        <v>0.15500746052469119</v>
+        <v>0.12558753638387204</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
@@ -1894,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1963,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -2031,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -2099,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -2167,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2194,7 +2177,7 @@
       </c>
       <c r="I9" s="31">
         <f>'Data from BFPIaE'!D11/'Data from BFPIaE'!B11</f>
-        <v>0.68036965837987495</v>
+        <v>0.70046828016369056</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -2236,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2266,7 +2249,7 @@
       </c>
       <c r="J10" s="12">
         <f>'Data from BFPIaE'!D12/SUM('Data from BFPIaE'!D12:E12)</f>
-        <v>7.2806513229885905E-2</v>
+        <v>7.5004052116109651E-2</v>
       </c>
       <c r="K10" s="8">
         <v>0</v>
@@ -2291,7 +2274,7 @@
       </c>
       <c r="R10" s="13">
         <f>1-J10</f>
-        <v>0.92719348677011415</v>
+        <v>0.92499594788389039</v>
       </c>
       <c r="S10" s="8">
         <v>0</v>
@@ -2306,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -2339,7 +2322,7 @@
       </c>
       <c r="K11" s="12">
         <f>'Data from BFPIaE'!D13/SUM('Data from BFPIaE'!D13:E13)</f>
-        <v>0.26002912808189416</v>
+        <v>0.26691051822957201</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -2361,7 +2344,7 @@
       </c>
       <c r="R11" s="13">
         <f>1-K11</f>
-        <v>0.73997087191810584</v>
+        <v>0.73308948177042799</v>
       </c>
       <c r="S11" s="8">
         <v>0</v>
@@ -2376,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +2395,7 @@
       </c>
       <c r="L12" s="31">
         <f>'Data from BFPIaE'!D14/'Data from BFPIaE'!B14</f>
-        <v>0.10491259896601664</v>
+        <v>8.7213883800914521E-2</v>
       </c>
       <c r="M12" s="8">
         <v>0</v>
@@ -2445,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -2484,7 +2467,7 @@
       </c>
       <c r="M13" s="31">
         <f>'Data from BFPIaE'!D15/'Data from BFPIaE'!B15</f>
-        <v>7.0542950086431883E-2</v>
+        <v>5.8642381491327347E-2</v>
       </c>
       <c r="N13" s="8">
         <v>0</v>
@@ -2514,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2556,7 +2539,7 @@
       </c>
       <c r="N14" s="12">
         <f>'Data from BFPIaE'!D16/SUM('Data from BFPIaE'!D16:E16)</f>
-        <v>9.9755024140854479E-2</v>
+        <v>0.10155994008332163</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
@@ -2569,7 +2552,7 @@
       </c>
       <c r="R14" s="13">
         <f>1-N14</f>
-        <v>0.90024497585914554</v>
+        <v>0.89844005991667841</v>
       </c>
       <c r="S14" s="8">
         <v>0</v>
@@ -2584,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2652,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -2720,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -2789,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
@@ -2857,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2911,11 +2894,11 @@
       </c>
       <c r="R19" s="13">
         <f>1-S19</f>
-        <v>0.49404181432894001</v>
+        <v>0.50085828893652218</v>
       </c>
       <c r="S19" s="12">
         <f>'Data from BFPIaE'!D21/SUM('Data from BFPIaE'!D21:E21)</f>
-        <v>0.50595818567105999</v>
+        <v>0.49914171106347782</v>
       </c>
       <c r="T19" s="8">
         <v>0</v>
@@ -2927,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -2981,14 +2964,14 @@
       </c>
       <c r="R20" s="13">
         <f>1-T20</f>
-        <v>0.57774176716224113</v>
+        <v>0.56213174784871833</v>
       </c>
       <c r="S20" s="8">
         <v>0</v>
       </c>
       <c r="T20" s="12">
         <f>'Data from BFPIaE'!D22/SUM('Data from BFPIaE'!D22:E22)</f>
-        <v>0.42225823283775882</v>
+        <v>0.43786825215128167</v>
       </c>
       <c r="U20" s="8">
         <v>0</v>
@@ -2997,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -3066,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>

--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\fuels\PoFDCtAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\fuels\PoFDCtAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8719F1CD-7F12-4E84-8193-D1202AC966B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A75DB-5DCF-48DD-815D-5DA8E9B27952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -790,19 +790,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="87.5703125" customWidth="1"/>
+    <col min="2" max="2" width="87.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,223 +810,223 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="33"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>53</v>
       </c>
@@ -1038,77 +1038,77 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -1130,24 +1130,24 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.1796875" customWidth="1"/>
+    <col min="2" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="100.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>70</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>71</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1304,28 +1304,28 @@
       <c r="F10" s="23"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="24">
-        <v>123408653368000</v>
+        <v>166043036334000</v>
       </c>
       <c r="C11" s="24">
-        <v>3835846580378.2954</v>
+        <v>5522103312930.1787</v>
       </c>
       <c r="D11" s="24">
-        <v>86443847182000</v>
+        <v>124444981024000</v>
       </c>
       <c r="E11" s="22">
-        <v>40800652766378.289</v>
+        <v>47120158622930.172</v>
       </c>
       <c r="F11" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>40</v>
       </c>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
         <v>41</v>
       </c>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>44</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>49</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>50</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
@@ -1590,20 +1590,20 @@
   </sheetPr>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="22" width="16.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+    <col min="2" max="22" width="16.54296875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="I9" s="31">
         <f>'Data from BFPIaE'!D11/'Data from BFPIaE'!B11</f>
-        <v>0.70046828016369056</v>
+        <v>0.74947425541939383</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
